--- a/Config/ExcelData/ClueConfig.xlsx
+++ b/Config/ExcelData/ClueConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18810" windowHeight="4935"/>
+    <workbookView windowWidth="20145" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>线索展示图</t>
-  </si>
-  <si>
-    <t>Assets/Texture/Clue/question.png</t>
   </si>
   <si>
     <t>Assets/Texture/Clue/suitcase.png</t>
@@ -1064,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
@@ -1152,22 +1149,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B4">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>50012</v>
+        <v>50013</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1175,48 +1172,25 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="B5">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="F5">
-        <v>50013</v>
+        <v>50014</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20003</v>
-      </c>
-      <c r="B6">
-        <v>10007</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>-10</v>
-      </c>
-      <c r="E6">
-        <v>-20</v>
-      </c>
-      <c r="F6">
-        <v>50014</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
